--- a/outputs/pVals6.1.xlsx
+++ b/outputs/pVals6.1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\IISc\CVO\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070B4C69-C7F9-47C6-A02D-58BB8D209066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8A9340-EC2B-422C-B4EF-62A6BEAE0451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pVals6.1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,11 +41,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -372,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -747,6 +757,19 @@
         <color auto="1"/>
       </top>
       <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -797,72 +820,75 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="33" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="33" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="34" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="34" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="34" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="34" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="34" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="34" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="33" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,520 +1246,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
+    <col min="2" max="21" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="10"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>0.50000000042741199</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>0.50000000042741199</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>0.25000000012437201</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="15">
         <v>0.25000000012437201</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="15">
         <v>0.25000000012437201</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="15">
         <v>0.25000000012437201</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>6</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>0.16666666690173801</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="15">
         <v>0.16666666690173801</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="15">
         <v>0.16666666690173801</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="15">
         <v>0.16666666690173801</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="15">
         <v>0.16666666690173801</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="15">
         <v>0.16666666690173801</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="22"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>0.12500000041711001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="15">
         <v>0.12500000041711001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="15">
         <v>0.12500000041711001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="15">
         <v>0.12500000041711001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="15">
         <v>0.12500000041711001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="15">
         <v>0.12500000041711001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="15">
         <v>0.12500000041711001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="15">
         <v>0.12500000041711001</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="22"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>0.100000000508781</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="15">
         <v>0.100000000508781</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="22"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="15">
         <v>8.3333333818593106E-2</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>14</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="15">
         <v>7.1428572134525997E-2</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="22"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="15">
         <v>6.2500000029538205E-2</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="22"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>18</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="15">
         <v>5.5555555845417597E-2</v>
       </c>
-      <c r="T10" s="20"/>
-      <c r="U10" s="22"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>20</v>
       </c>
-      <c r="B11" s="14">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="N11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="O11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="P11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="R11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="S11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="T11" s="3">
-        <v>5.0000000503926799E-2</v>
-      </c>
-      <c r="U11" s="4">
+      <c r="B11" s="19">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="I11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="J11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="K11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="L11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="M11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="N11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="O11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="P11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="R11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="S11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="T11" s="20">
+        <v>5.0000000503926799E-2</v>
+      </c>
+      <c r="U11" s="21">
         <v>5.0000000503926799E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>